--- a/Data/ReporteBalance_AntiCaptcha.xlsx
+++ b/Data/ReporteBalance_AntiCaptcha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <x:si>
     <x:t>29/07/2022</x:t>
   </x:si>
@@ -38,6 +38,9 @@
   </x:si>
   <x:si>
     <x:t>16/09/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/09/2022</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1714,6 +1717,70 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="166" spans="1:2">
+      <x:c r="A166" s="0" t="n">
+        <x:v>4.9118</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:2">
+      <x:c r="A167" s="0" t="n">
+        <x:v>4.90977</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:2">
+      <x:c r="A168" s="0" t="n">
+        <x:v>4.90788</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:2">
+      <x:c r="A169" s="0" t="n">
+        <x:v>4.90525</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:2">
+      <x:c r="A170" s="0" t="n">
+        <x:v>4.90115</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:2">
+      <x:c r="A171" s="0" t="n">
+        <x:v>4.90115</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:2">
+      <x:c r="A172" s="0" t="n">
+        <x:v>4.89653</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:2">
+      <x:c r="A173" s="0" t="n">
+        <x:v>4.88889</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Data/ReporteBalance_AntiCaptcha.xlsx
+++ b/Data/ReporteBalance_AntiCaptcha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>29/07/2022</x:t>
   </x:si>
@@ -41,6 +41,12 @@
   </x:si>
   <x:si>
     <x:t>30/09/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/10/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1781,6 +1787,134 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
+    <x:row r="174" spans="1:2">
+      <x:c r="A174" s="0" t="n">
+        <x:v>4.81883</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:2">
+      <x:c r="A175" s="0" t="n">
+        <x:v>4.81823</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:2">
+      <x:c r="A176" s="0" t="n">
+        <x:v>4.81763</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:2">
+      <x:c r="A177" s="0" t="n">
+        <x:v>4.81703</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:2">
+      <x:c r="A178" s="0" t="n">
+        <x:v>4.81643</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:2">
+      <x:c r="A179" s="0" t="n">
+        <x:v>4.81583</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:2">
+      <x:c r="A180" s="0" t="n">
+        <x:v>4.81523</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:2">
+      <x:c r="A181" s="0" t="n">
+        <x:v>4.81463</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:2">
+      <x:c r="A182" s="0" t="n">
+        <x:v>4.81343</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:2">
+      <x:c r="A183" s="0" t="n">
+        <x:v>4.81283</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:2">
+      <x:c r="A184" s="0" t="n">
+        <x:v>4.81223</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:2">
+      <x:c r="A185" s="0" t="n">
+        <x:v>4.81163</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:2">
+      <x:c r="A186" s="0" t="n">
+        <x:v>4.81103</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:2">
+      <x:c r="A187" s="0" t="n">
+        <x:v>4.81043</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:2">
+      <x:c r="A188" s="0" t="n">
+        <x:v>4.80983</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:2">
+      <x:c r="A189" s="0" t="n">
+        <x:v>4.80923</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Data/ReporteBalance_AntiCaptcha.xlsx
+++ b/Data/ReporteBalance_AntiCaptcha.xlsx
@@ -1915,6 +1915,14 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
+    <x:row r="190" spans="1:2">
+      <x:c r="A190" s="0" t="n">
+        <x:v>4.80863</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
